--- a/seed_tool/FormatDBSeedData.xlsx
+++ b/seed_tool/FormatDBSeedData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Skaggs\Projects\OSU_Projects\CS_361\MicroserviceA-FinacialTips\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Skaggs\Projects\OSU_Projects\CS_361\MicroserviceA-FinacialTips\seed_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A89D38EA-F34C-46CD-9DA7-6A42A2B9901D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AC3EF3-B164-4E4E-8B7D-397754539F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{21D47D2C-7248-43CE-8C2F-D733533BA42D}"/>
   </bookViews>
@@ -512,9 +512,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,14 +558,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{89385CE6-394F-4397-B180-449594F1EC55}" name="Table2" displayName="Table2" ref="A1:F65" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{89385CE6-394F-4397-B180-449594F1EC55}" name="Table2" displayName="Table2" ref="A1:F65" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F65" xr:uid="{89385CE6-394F-4397-B180-449594F1EC55}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E822FE71-E85F-4498-8062-61FD536A11EF}" name="Title" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{5EBF980B-D641-495B-A3A9-ECE857810734}" name="Link" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{F315AE52-7F61-4BE3-AA54-BEEF3EB3A4C8}" name="Category" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{9FF51774-D0FC-43B5-807C-93FACB8717CE}" name="Rating" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{EE75575F-7C30-4769-B839-932DA0AF059C}" name="Rating Count" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{E822FE71-E85F-4498-8062-61FD536A11EF}" name="Title" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{5EBF980B-D641-495B-A3A9-ECE857810734}" name="Link" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F315AE52-7F61-4BE3-AA54-BEEF3EB3A4C8}" name="Category" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{9FF51774-D0FC-43B5-807C-93FACB8717CE}" name="Rating" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{EE75575F-7C30-4769-B839-932DA0AF059C}" name="Rating Count" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{AC131B7F-F97F-41AA-B34E-D4D1538A341A}" name="db_seed.py formatting" dataDxfId="0">
       <calculatedColumnFormula>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</calculatedColumnFormula>
     </tableColumn>
@@ -898,1375 +897,1374 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="111.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="111.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="str">
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Save for Retirement Early to Maximize Compound Interest", "https://example.com/retirement-early", "Retirement", 5, 1),</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="1">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="str">
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Build a Solid Emergency Fund", "https://example.com/emergency-fund", "Saving", 5, 1),</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="str">
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Understanding the Importance of Your Net Worth", "https://example.com/net-worth", "Finance", 5, 1),</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="str">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Diversify Your Investment Portfolio", "https://example.com/diversify-investments", "Investment", 5, 1),</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="str">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Tips for Paying Off Debt Faster", "https://example.com/pay-debt", "Debt", 5, 1),</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="1">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="str">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Mastering the Basics of Budgeting", "https://example.com/budgeting-basics", "Budgeting", 5, 1),</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="str">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("The Best Retirement Accounts for Tax Savings", "https://example.com/tax-savings-retirement", "Taxes", 5, 1),</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="1">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="str">
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("5 Steps to Improve Your Credit Score", "https://example.com/improve-credit-score", "Credit", 5, 1),</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="str">
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("The Power of Automatic Savings for Long-Term Goals", "https://example.com/automatic-savings", "Saving", 5, 1),</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="1">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="str">
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Choose the Right Insurance for Your Needs", "https://example.com/right-insurance", "Insurance", 5, 1),</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="str">
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Understanding IRAs and 401(k)s: Which is Better for You?", "https://example.com/iras-vs-401k", "Retirement", 5, 1),</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="1">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="str">
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Save on Household Bills and Utilities", "https://example.com/save-utilities", "Saving", 5, 1),</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="str">
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Investing in Real Estate: Key Considerations", "https://example.com/real-estate-investing", "Real Estate", 5, 1),</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="1">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="str">
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("The Role of Estate Planning in Your Financial Future", "https://example.com/estate-planning", "Estate Planning", 5, 1),</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="1">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="str">
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Build Wealth as a Millennial", "https://example.com/millennial-wealth", "Investment", 5, 1),</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="1">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="str">
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Maximize Your Tax Deductions", "https://example.com/tax-deductions", "Taxes", 5, 1),</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="1">
-        <v>5</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="str">
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Planning for Healthcare Costs in Retirement", "https://example.com/healthcare-retirement", "Healthcare", 5, 1),</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="1">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="str">
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Why You Should Invest in a Tax-Free Savings Account", "https://example.com/tfsa-investing", "Investment", 5, 1),</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="1">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="str">
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Why Financial Literacy is Critical for Parents", "https://example.com/financial-literacy-parents", "Education", 5, 1),</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="1">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="str">
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("The Benefits of Working with a Fee-Only Financial Advisor", "https://example.com/fee-only-advisor", "Finance", 5, 1),</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="1">
-        <v>5</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="str">
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Cut Costs without Sacrificing Quality", "https://example.com/cut-costs", "Budgeting", 5, 1),</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="1">
-        <v>5</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="str">
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Managing Your Investment Risk in Volatile Markets", "https://example.com/investment-risk", "Investment", 5, 1),</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="str">
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Should You Refinance Your Mortgage?", "https://example.com/refinance-mortgage", "Real Estate", 5, 1),</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="1">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="str">
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Take Advantage of Employer Retirement Plans", "https://example.com/employer-plans", "Retirement", 5, 1),</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="1">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="str">
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Protect Your Wealth with Insurance", "https://example.com/protect-wealth-insurance", "Insurance", 5, 1),</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="1">
-        <v>5</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="str">
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("The Best Time to Start Saving for College", "https://example.com/college-saving", "Education", 5, 1),</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="1">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="str">
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Maximize Your Social Security Benefits", "https://example.com/social-security", "Retirement", 5, 1),</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="1">
-        <v>5</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="str">
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Understanding Bonds: A Beginner’s Guide", "https://example.com/understanding-bonds", "Investment", 5, 1),</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="1">
-        <v>5</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1" t="str">
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Invest in Cryptocurrency Safely", "https://example.com/cryptocurrency-investing", "Investment", 5, 1),</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="1">
-        <v>5</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="str">
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("The Basics of Filing Your Taxes", "https://example.com/filing-taxes", "Taxes", 5, 1),</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="1">
-        <v>5</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1" t="str">
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Start Investing with Little Money", "https://example.com/invest-with-little-money", "Investment", 5, 1),</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="1">
-        <v>5</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="str">
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Protecting Your Assets with Estate Planning Tools", "https://example.com/estate-planning-tools", "Estate Planning", 5, 1),</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="1">
-        <v>5</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1" t="str">
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Maximize Your 401(k) Contributions", "https://example.com/401k-contributions", "Retirement", 5, 1),</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="1">
-        <v>5</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1" t="str">
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Build a Sustainable Monthly Budget", "https://example.com/sustainable-budget", "Budgeting", 5, 1),</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="1">
-        <v>5</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1" t="str">
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Investing in Stocks vs. Bonds: What You Need to Know", "https://example.com/stocks-vs-bonds", "Investment", 5, 1),</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="1">
-        <v>5</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="str">
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Protecting Your Family’s Future with Life Insurance", "https://example.com/life-insurance", "Insurance", 5, 1),</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="1">
-        <v>5</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1" t="str">
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Start Saving for Your Child’s College Education", "https://example.com/college-savings", "Education", 5, 1),</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="1">
-        <v>5</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1" t="str">
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Make the Most of Your Tax Refund", "https://example.com/tax-refund", "Taxes", 5, 1),</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="1">
-        <v>5</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1" t="str">
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("The Importance of Having a Financial Plan", "https://example.com/financial-plan", "Finance", 5, 1),</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="1">
-        <v>5</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="str">
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Maximizing Your Investment Portfolio with ETFs", "https://example.com/max-etfs", "Investment", 5, 1),</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>5</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1" t="str">
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Build Wealth with Real Estate", "https://example.com/real-estate-wealth", "Real Estate", 5, 1),</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="1">
-        <v>5</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1" t="str">
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Why You Should Reevaluate Your Budget Every Year", "https://example.com/re-evaluate-budget", "Budgeting", 5, 1),</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="1">
-        <v>5</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1" t="str">
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Protect Your Wealth in Retirement", "https://example.com/retirement-wealth-protection", "Retirement", 5, 1),</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="1">
-        <v>5</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1" t="str">
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("The Best Investment Strategies for Beginners", "https://example.com/investment-strategies", "Investment", 5, 1),</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="1">
-        <v>5</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1" t="str">
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Manage Debt During Economic Uncertainty", "https://example.com/manage-debt-uncertainty", "Debt", 5, 1),</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1">
-        <v>5</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1" t="str">
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Invest in Real Estate with Little Capital", "https://example.com/real-estate-small-capital", "Real Estate", 5, 1),</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="1">
-        <v>5</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1" t="str">
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Why You Should Consider a Roth IRA", "https://example.com/roth-ira", "Retirement", 5, 1),</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="1">
-        <v>5</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1" t="str">
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("The Benefits of a High-Yield Savings Account", "https://example.com/high-yield-savings", "Saving", 5, 1),</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="1">
-        <v>5</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1" t="str">
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Use Credit Wisely and Improve Your Score", "https://example.com/credit-wisely", "Credit", 5, 1),</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>0</v>
       </c>
-      <c r="D51" s="1">
-        <v>5</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1" t="str">
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Prepare for Major Financial Expenses", "https://example.com/prepare-major-expenses", "Finance", 5, 1),</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="1">
-        <v>5</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1" t="str">
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Top Strategies for Paying Off Student Loans", "https://example.com/pay-student-loans", "Debt", 5, 1),</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="1">
-        <v>5</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1" t="str">
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Invest in Index Funds for Steady Growth", "https://example.com/index-fund-investing", "Investment", 5, 1),</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="1">
-        <v>5</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1" t="str">
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Understand Your Tax Bracket", "https://example.com/tax-bracket", "Taxes", 5, 1),</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>130</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="1">
-        <v>5</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1</v>
-      </c>
-      <c r="F55" s="1" t="str">
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Plan for Retirement as a Freelancer", "https://example.com/freelancer-retirement", "Retirement", 5, 1),</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>131</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="1">
-        <v>5</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1" t="str">
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("The Importance of Disability Insurance", "https://example.com/disability-insurance", "Insurance", 5, 1),</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="1">
-        <v>5</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1" t="str">
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Building a Strong Investment Foundation with ETFs", "https://example.com/etf-investment", "Investment", 5, 1),</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>133</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1">
-        <v>5</v>
-      </c>
-      <c r="E58" s="1">
-        <v>1</v>
-      </c>
-      <c r="F58" s="1" t="str">
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Buy Your First Home Without Overstretching", "https://example.com/buy-first-home", "Real Estate", 5, 1),</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>35</v>
       </c>
-      <c r="D59" s="1">
-        <v>5</v>
-      </c>
-      <c r="E59" s="1">
-        <v>1</v>
-      </c>
-      <c r="F59" s="1" t="str">
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Understanding Capital Gains Tax", "https://example.com/capital-gains-tax", "Taxes", 5, 1),</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>88</v>
       </c>
-      <c r="D60" s="1">
-        <v>5</v>
-      </c>
-      <c r="E60" s="1">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1" t="str">
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Create a Comprehensive Estate Plan", "https://example.com/comprehensive-estate-plan", "Estate Planning", 5, 1),</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>83</v>
       </c>
-      <c r="D61" s="1">
-        <v>5</v>
-      </c>
-      <c r="E61" s="1">
-        <v>1</v>
-      </c>
-      <c r="F61" s="1" t="str">
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("Why You Should Regularly Review Your Insurance Policies", "https://example.com/review-insurance", "Insurance", 5, 1),</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="1">
-        <v>5</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1" t="str">
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Start Investing with $500 or Less", "https://example.com/start-investing-500", "Investment", 5, 1),</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>138</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="1">
-        <v>5</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1" t="str">
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Build Your Financial Safety Net", "https://example.com/financial-safety-net", "Saving", 5, 1),</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>139</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="1">
-        <v>5</v>
-      </c>
-      <c r="E64" s="1">
-        <v>1</v>
-      </c>
-      <c r="F64" s="1" t="str">
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("How to Plan for a Comfortable Retirement", "https://example.com/comfortable-retirement", "Retirement", 5, 1),</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>140</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>35</v>
       </c>
-      <c r="D65" s="1">
-        <v>5</v>
-      </c>
-      <c r="E65" s="1">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1" t="str">
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="str">
         <f>"("""&amp;Table2[[#This Row],[Title]]&amp;""", """&amp;Table2[[#This Row],[Link]]&amp;""", """&amp;Table2[[#This Row],[Category]]&amp;""", " &amp; Table2[[#This Row],[Rating]] &amp; ", " &amp; Table2[[#This Row],[Rating Count]] &amp; "),"</f>
         <v>("The Basics of Real Estate Tax Deductions", "https://example.com/real-estate-deductions", "Taxes", 5, 1),</v>
       </c>
